--- a/data/行业分类表.xlsx
+++ b/data/行业分类表.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="中信二级行业" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>金融地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他经济敏感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他经济不敏感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保险</t>
   </si>
   <si>
@@ -288,6 +280,10 @@
   </si>
   <si>
     <t>黑色家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,22 +650,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,315 +676,332 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/行业分类表.xlsx
+++ b/data/行业分类表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>金融地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,7 +283,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>其他经济敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他经济不敏感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,19 +654,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +682,11 @@
       <c r="E1" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,8 +702,11 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -712,8 +722,11 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -729,8 +742,11 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -746,8 +762,11 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -763,8 +782,11 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -780,8 +802,11 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>85</v>
       </c>
@@ -792,10 +817,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>86</v>
       </c>
@@ -806,10 +834,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
@@ -817,10 +848,13 @@
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
@@ -828,10 +862,13 @@
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -839,10 +876,13 @@
         <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -850,10 +890,13 @@
         <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -861,10 +904,13 @@
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
@@ -872,136 +918,61 @@
         <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="1" t="s">
-        <v>32</v>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/行业分类表.xlsx
+++ b/data/行业分类表.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中信二级行业" sheetId="1" r:id="rId1"/>
+    <sheet name="行业市值" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>金融地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +292,278 @@
   </si>
   <si>
     <t>其他经济不敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005101.WI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005102.WI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005103.WI</t>
+  </si>
+  <si>
+    <t>CI005104.WI</t>
+  </si>
+  <si>
+    <t>CI005105.WI</t>
+  </si>
+  <si>
+    <t>CI005106.WI</t>
+  </si>
+  <si>
+    <t>CI005107.WI</t>
+  </si>
+  <si>
+    <t>CI005108.WI</t>
+  </si>
+  <si>
+    <t>CI005109.WI</t>
+  </si>
+  <si>
+    <t>CI005110.WI</t>
+  </si>
+  <si>
+    <t>CI005111.WI</t>
+  </si>
+  <si>
+    <t>CI005112.WI</t>
+  </si>
+  <si>
+    <t>CI005113.WI</t>
+  </si>
+  <si>
+    <t>CI005114.WI</t>
+  </si>
+  <si>
+    <t>CI005115.WI</t>
+  </si>
+  <si>
+    <t>CI005116.WI</t>
+  </si>
+  <si>
+    <t>CI005117.WI</t>
+  </si>
+  <si>
+    <t>CI005118.WI</t>
+  </si>
+  <si>
+    <t>CI005119.WI</t>
+  </si>
+  <si>
+    <t>CI005120.WI</t>
+  </si>
+  <si>
+    <t>CI005121.WI</t>
+  </si>
+  <si>
+    <t>CI005122.WI</t>
+  </si>
+  <si>
+    <t>CI005123.WI</t>
+  </si>
+  <si>
+    <t>CI005124.WI</t>
+  </si>
+  <si>
+    <t>CI005125.WI</t>
+  </si>
+  <si>
+    <t>CI005126.WI</t>
+  </si>
+  <si>
+    <t>CI005127.WI</t>
+  </si>
+  <si>
+    <t>CI005128.WI</t>
+  </si>
+  <si>
+    <t>CI005129.WI</t>
+  </si>
+  <si>
+    <t>CI005130.WI</t>
+  </si>
+  <si>
+    <t>CI005131.WI</t>
+  </si>
+  <si>
+    <t>CI005132.WI</t>
+  </si>
+  <si>
+    <t>CI005133.WI</t>
+  </si>
+  <si>
+    <t>CI005134.WI</t>
+  </si>
+  <si>
+    <t>CI005135.WI</t>
+  </si>
+  <si>
+    <t>CI005136.WI</t>
+  </si>
+  <si>
+    <t>CI005137.WI</t>
+  </si>
+  <si>
+    <t>CI005138.WI</t>
+  </si>
+  <si>
+    <t>CI005139.WI</t>
+  </si>
+  <si>
+    <t>CI005140.WI</t>
+  </si>
+  <si>
+    <t>CI005141.WI</t>
+  </si>
+  <si>
+    <t>CI005142.WI</t>
+  </si>
+  <si>
+    <t>CI005143.WI</t>
+  </si>
+  <si>
+    <t>CI005144.WI</t>
+  </si>
+  <si>
+    <t>CI005145.WI</t>
+  </si>
+  <si>
+    <t>CI005146.WI</t>
+  </si>
+  <si>
+    <t>CI005147.WI</t>
+  </si>
+  <si>
+    <t>CI005148.WI</t>
+  </si>
+  <si>
+    <t>CI005149.WI</t>
+  </si>
+  <si>
+    <t>CI005150.WI</t>
+  </si>
+  <si>
+    <t>CI005151.WI</t>
+  </si>
+  <si>
+    <t>CI005152.WI</t>
+  </si>
+  <si>
+    <t>CI005153.WI</t>
+  </si>
+  <si>
+    <t>CI005154.WI</t>
+  </si>
+  <si>
+    <t>CI005155.WI</t>
+  </si>
+  <si>
+    <t>CI005156.WI</t>
+  </si>
+  <si>
+    <t>CI005157.WI</t>
+  </si>
+  <si>
+    <t>CI005158.WI</t>
+  </si>
+  <si>
+    <t>CI005159.WI</t>
+  </si>
+  <si>
+    <t>CI005160.WI</t>
+  </si>
+  <si>
+    <t>CI005161.WI</t>
+  </si>
+  <si>
+    <t>CI005162.WI</t>
+  </si>
+  <si>
+    <t>CI005163.WI</t>
+  </si>
+  <si>
+    <t>CI005164.WI</t>
+  </si>
+  <si>
+    <t>CI005165.WI</t>
+  </si>
+  <si>
+    <t>CI005166.WI</t>
+  </si>
+  <si>
+    <t>CI005167.WI</t>
+  </si>
+  <si>
+    <t>CI005168.WI</t>
+  </si>
+  <si>
+    <t>CI005169.WI</t>
+  </si>
+  <si>
+    <t>CI005170.WI</t>
+  </si>
+  <si>
+    <t>CI005171.WI</t>
+  </si>
+  <si>
+    <t>CI005172.WI</t>
+  </si>
+  <si>
+    <t>CI005173.WI</t>
+  </si>
+  <si>
+    <t>CI005174.WI</t>
+  </si>
+  <si>
+    <t>CI005175.WI</t>
+  </si>
+  <si>
+    <t>CI005176.WI</t>
+  </si>
+  <si>
+    <t>CI005177.WI</t>
+  </si>
+  <si>
+    <t>CI005178.WI</t>
+  </si>
+  <si>
+    <t>CI005179.WI</t>
+  </si>
+  <si>
+    <t>CI005180.WI</t>
+  </si>
+  <si>
+    <t>CI005181.WI</t>
+  </si>
+  <si>
+    <t>CI005182.WI</t>
+  </si>
+  <si>
+    <t>CI005183.WI</t>
+  </si>
+  <si>
+    <t>CI005184.WI</t>
+  </si>
+  <si>
+    <t>CI005185.WI</t>
+  </si>
+  <si>
+    <t>CI005186.WI</t>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值（亿元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,6 +571,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,10 +625,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,6 +645,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="S_Info_Name"/>
+      <definedName name="s_val_mv_ard"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -979,4 +1280,1156 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>[1]!S_Info_Name(A2)</f>
+        <v>石油开采Ⅱ(中信)</v>
+      </c>
+      <c r="C2" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A2,TODAY()-1)/100000000</f>
+        <v>11333.296927150001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>[1]!S_Info_Name(A3)</f>
+        <v>石油化工(中信)</v>
+      </c>
+      <c r="C3" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A3,TODAY()-1)/100000000</f>
+        <v>10931.52499484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>[1]!S_Info_Name(A4)</f>
+        <v>油田服务Ⅱ(中信)</v>
+      </c>
+      <c r="C4" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A4,TODAY()-1)/100000000</f>
+        <v>1882.7279607400001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>[1]!S_Info_Name(A5)</f>
+        <v>煤炭开采洗选(中信)</v>
+      </c>
+      <c r="C5" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A5,TODAY()-1)/100000000</f>
+        <v>7564.2296362500001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>[1]!S_Info_Name(A6)</f>
+        <v>煤炭化工(中信)</v>
+      </c>
+      <c r="C6" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A6,TODAY()-1)/100000000</f>
+        <v>833.86733905000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]!S_Info_Name(A7)</f>
+        <v>贵金属(中信)</v>
+      </c>
+      <c r="C7" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A7,TODAY()-1)/100000000</f>
+        <v>2737.5422624299999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>[1]!S_Info_Name(A8)</f>
+        <v>工业金属(中信)</v>
+      </c>
+      <c r="C8" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A8,TODAY()-1)/100000000</f>
+        <v>5925.6591488399999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>[1]!S_Info_Name(A9)</f>
+        <v>稀有金属Ⅱ(中信)</v>
+      </c>
+      <c r="C9" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A9,TODAY()-1)/100000000</f>
+        <v>4872.62372065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>[1]!S_Info_Name(A10)</f>
+        <v>发电及电网(中信)</v>
+      </c>
+      <c r="C10" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A10,TODAY()-1)/100000000</f>
+        <v>16052.46415322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>[1]!S_Info_Name(A11)</f>
+        <v>环保及公用事业(中信)</v>
+      </c>
+      <c r="C11" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A11,TODAY()-1)/100000000</f>
+        <v>6298.7131686599996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>[1]!S_Info_Name(A12)</f>
+        <v>普钢(中信)</v>
+      </c>
+      <c r="C12" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A12,TODAY()-1)/100000000</f>
+        <v>5654.1643608699997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>[1]!S_Info_Name(A13)</f>
+        <v>其他钢铁(中信)</v>
+      </c>
+      <c r="C13" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A13,TODAY()-1)/100000000</f>
+        <v>1912.6923752800001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>[1]!S_Info_Name(A14)</f>
+        <v>农用化工(中信)</v>
+      </c>
+      <c r="C14" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A14,TODAY()-1)/100000000</f>
+        <v>3283.45128376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>[1]!S_Info_Name(A15)</f>
+        <v>合成纤维及树脂(中信)</v>
+      </c>
+      <c r="C15" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A15,TODAY()-1)/100000000</f>
+        <v>1938.2253748400001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>[1]!S_Info_Name(A16)</f>
+        <v>化学原料(中信)</v>
+      </c>
+      <c r="C16" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A16,TODAY()-1)/100000000</f>
+        <v>6533.34243642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>[1]!S_Info_Name(A17)</f>
+        <v>化学制品(中信)</v>
+      </c>
+      <c r="C17" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A17,TODAY()-1)/100000000</f>
+        <v>8471.1776562000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>[1]!S_Info_Name(A18)</f>
+        <v>建筑施工Ⅱ(中信)</v>
+      </c>
+      <c r="C18" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A18,TODAY()-1)/100000000</f>
+        <v>13039.02689727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>[1]!S_Info_Name(A19)</f>
+        <v>建筑装修Ⅱ(中信)</v>
+      </c>
+      <c r="C19" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A19,TODAY()-1)/100000000</f>
+        <v>1599.0283348600001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>[1]!S_Info_Name(A20)</f>
+        <v>水泥Ⅱ(中信)</v>
+      </c>
+      <c r="C20" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A20,TODAY()-1)/100000000</f>
+        <v>4477.2185722300001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>[1]!S_Info_Name(A21)</f>
+        <v>玻璃Ⅱ(中信)</v>
+      </c>
+      <c r="C21" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A21,TODAY()-1)/100000000</f>
+        <v>1337.2984647000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>[1]!S_Info_Name(A22)</f>
+        <v>其他建材(中信)</v>
+      </c>
+      <c r="C22" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A22,TODAY()-1)/100000000</f>
+        <v>3027.5605257699999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>[1]!S_Info_Name(A23)</f>
+        <v>造纸Ⅱ(中信)</v>
+      </c>
+      <c r="C23" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A23,TODAY()-1)/100000000</f>
+        <v>1556.1923763699999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>[1]!S_Info_Name(A24)</f>
+        <v>其他轻工Ⅱ(中信)</v>
+      </c>
+      <c r="C24" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A24,TODAY()-1)/100000000</f>
+        <v>5542.8064324899997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>[1]!S_Info_Name(A25)</f>
+        <v>工程机械Ⅱ(中信)</v>
+      </c>
+      <c r="C25" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A25,TODAY()-1)/100000000</f>
+        <v>2897.9872219399999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>[1]!S_Info_Name(A26)</f>
+        <v>其他专用设备(中信)</v>
+      </c>
+      <c r="C26" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A26,TODAY()-1)/100000000</f>
+        <v>8108.7905039799998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>[1]!S_Info_Name(A27)</f>
+        <v>通用设备(中信)</v>
+      </c>
+      <c r="C27" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A27,TODAY()-1)/100000000</f>
+        <v>5766.7189605900003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>[1]!S_Info_Name(A28)</f>
+        <v>运输设备(中信)</v>
+      </c>
+      <c r="C28" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A28,TODAY()-1)/100000000</f>
+        <v>4615.7343838300003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>[1]!S_Info_Name(A29)</f>
+        <v>仪器仪表Ⅱ(中信)</v>
+      </c>
+      <c r="C29" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A29,TODAY()-1)/100000000</f>
+        <v>1456.71640553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>[1]!S_Info_Name(A30)</f>
+        <v>金属制品Ⅱ(中信)</v>
+      </c>
+      <c r="C30" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A30,TODAY()-1)/100000000</f>
+        <v>772.60318552000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>[1]!S_Info_Name(A31)</f>
+        <v>电站设备Ⅱ(中信)</v>
+      </c>
+      <c r="C31" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A31,TODAY()-1)/100000000</f>
+        <v>1917.47187388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>[1]!S_Info_Name(A32)</f>
+        <v>输变电设备(中信)</v>
+      </c>
+      <c r="C32" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A32,TODAY()-1)/100000000</f>
+        <v>6159.8535063299996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>[1]!S_Info_Name(A33)</f>
+        <v>新能源设备(中信)</v>
+      </c>
+      <c r="C33" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A33,TODAY()-1)/100000000</f>
+        <v>5682.6004688000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>[1]!S_Info_Name(A34)</f>
+        <v>航空航天(中信)</v>
+      </c>
+      <c r="C34" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A34,TODAY()-1)/100000000</f>
+        <v>4821.4009153800007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>[1]!S_Info_Name(A35)</f>
+        <v>兵器兵装Ⅱ(中信)</v>
+      </c>
+      <c r="C35" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A35,TODAY()-1)/100000000</f>
+        <v>643.30416314000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>[1]!S_Info_Name(A36)</f>
+        <v>其他军工Ⅱ(中信)</v>
+      </c>
+      <c r="C36" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A36,TODAY()-1)/100000000</f>
+        <v>4527.5290436399991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>[1]!S_Info_Name(A37)</f>
+        <v>乘用车Ⅱ(中信)</v>
+      </c>
+      <c r="C37" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A37,TODAY()-1)/100000000</f>
+        <v>7172.0439917699987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>[1]!S_Info_Name(A38)</f>
+        <v>商用车(中信)</v>
+      </c>
+      <c r="C38" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A38,TODAY()-1)/100000000</f>
+        <v>1212.2133733200001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>[1]!S_Info_Name(A39)</f>
+        <v>汽车零部件Ⅱ(中信)</v>
+      </c>
+      <c r="C39" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A39,TODAY()-1)/100000000</f>
+        <v>10721.315967549999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>[1]!S_Info_Name(A40)</f>
+        <v>汽车销售及服务Ⅱ(中信)</v>
+      </c>
+      <c r="C40" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A40,TODAY()-1)/100000000</f>
+        <v>523.69137923999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>[1]!S_Info_Name(A41)</f>
+        <v>摩托车及其他Ⅱ(中信)</v>
+      </c>
+      <c r="C41" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A41,TODAY()-1)/100000000</f>
+        <v>339.77986081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>[1]!S_Info_Name(A42)</f>
+        <v>零售(中信)</v>
+      </c>
+      <c r="C42" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A42,TODAY()-1)/100000000</f>
+        <v>6433.7891240999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>[1]!S_Info_Name(A43)</f>
+        <v>贸易Ⅱ(中信)</v>
+      </c>
+      <c r="C43" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A43,TODAY()-1)/100000000</f>
+        <v>1763.8166069700001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>[1]!S_Info_Name(A44)</f>
+        <v>景区和旅行社(中信)</v>
+      </c>
+      <c r="C44" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A44,TODAY()-1)/100000000</f>
+        <v>2794.9081994600001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>[1]!S_Info_Name(A45)</f>
+        <v>酒店及餐饮(中信)</v>
+      </c>
+      <c r="C45" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A45,TODAY()-1)/100000000</f>
+        <v>780.80874060999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>[1]!S_Info_Name(A46)</f>
+        <v>白色家电Ⅱ(中信)</v>
+      </c>
+      <c r="C46" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A46,TODAY()-1)/100000000</f>
+        <v>10970.622895730001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>[1]!S_Info_Name(A47)</f>
+        <v>黑色家电Ⅱ(中信)</v>
+      </c>
+      <c r="C47" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A47,TODAY()-1)/100000000</f>
+        <v>793.17573381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>[1]!S_Info_Name(A48)</f>
+        <v>小家电Ⅱ(中信)</v>
+      </c>
+      <c r="C48" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A48,TODAY()-1)/100000000</f>
+        <v>1542.2517182500001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>[1]!S_Info_Name(A49)</f>
+        <v>照明设备及其他(中信)</v>
+      </c>
+      <c r="C49" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A49,TODAY()-1)/100000000</f>
+        <v>853.61487585999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>[1]!S_Info_Name(A50)</f>
+        <v>纺织(中信)</v>
+      </c>
+      <c r="C50" s="3" t="e">
+        <f ca="1">[1]!s_val_mv_ard(A50,TODAY()-1)/100000000</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>[1]!S_Info_Name(A51)</f>
+        <v>服装Ⅱ(中信)</v>
+      </c>
+      <c r="C51" s="3" t="e">
+        <f ca="1">[1]!s_val_mv_ard(A51,TODAY()-1)/100000000</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>[1]!S_Info_Name(A52)</f>
+        <v>服饰Ⅱ(中信)</v>
+      </c>
+      <c r="C52" s="3" t="e">
+        <f ca="1">[1]!s_val_mv_ard(A52,TODAY()-1)/100000000</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>[1]!S_Info_Name(A53)</f>
+        <v>化学制药(中信)</v>
+      </c>
+      <c r="C53" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A53,TODAY()-1)/100000000</f>
+        <v>13315.31678888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>[1]!S_Info_Name(A54)</f>
+        <v>中药生产(中信)</v>
+      </c>
+      <c r="C54" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A54,TODAY()-1)/100000000</f>
+        <v>7673.5178477500012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>[1]!S_Info_Name(A55)</f>
+        <v>生物医药Ⅱ(中信)</v>
+      </c>
+      <c r="C55" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A55,TODAY()-1)/100000000</f>
+        <v>6496.0121254100004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>[1]!S_Info_Name(A56)</f>
+        <v>其他医药医疗(中信)</v>
+      </c>
+      <c r="C56" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A56,TODAY()-1)/100000000</f>
+        <v>14968.660040070001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>[1]!S_Info_Name(A57)</f>
+        <v>白酒Ⅱ(中信)</v>
+      </c>
+      <c r="C57" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A57,TODAY()-1)/100000000</f>
+        <v>25997.754142599999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>[1]!S_Info_Name(A58)</f>
+        <v>其他饮料Ⅱ(中信)</v>
+      </c>
+      <c r="C58" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A58,TODAY()-1)/100000000</f>
+        <v>2268.0539740600002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>[1]!S_Info_Name(A59)</f>
+        <v>食品(中信)</v>
+      </c>
+      <c r="C59" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A59,TODAY()-1)/100000000</f>
+        <v>11347.653467349999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>[1]!S_Info_Name(A60)</f>
+        <v>农业(中信)</v>
+      </c>
+      <c r="C60" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A60,TODAY()-1)/100000000</f>
+        <v>1815.25582396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>[1]!S_Info_Name(A61)</f>
+        <v>牧业(中信)</v>
+      </c>
+      <c r="C61" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A61,TODAY()-1)/100000000</f>
+        <v>7975.0631940800004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>[1]!S_Info_Name(A62)</f>
+        <v>林业(中信)</v>
+      </c>
+      <c r="C62" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A62,TODAY()-1)/100000000</f>
+        <v>358.34747915000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>[1]!S_Info_Name(A63)</f>
+        <v>渔业(中信)</v>
+      </c>
+      <c r="C63" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A63,TODAY()-1)/100000000</f>
+        <v>206.85467790000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>[1]!S_Info_Name(A64)</f>
+        <v>国有银行Ⅱ(中信)</v>
+      </c>
+      <c r="C64" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A64,TODAY()-1)/100000000</f>
+        <v>66871.388610959984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>[1]!S_Info_Name(A65)</f>
+        <v>股份制与城商行(中信)</v>
+      </c>
+      <c r="C65" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A65,TODAY()-1)/100000000</f>
+        <v>39420.78430875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>[1]!S_Info_Name(A66)</f>
+        <v>证券Ⅱ(中信)</v>
+      </c>
+      <c r="C66" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A66,TODAY()-1)/100000000</f>
+        <v>28646.238752630001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>[1]!S_Info_Name(A67)</f>
+        <v>保险Ⅱ(中信)</v>
+      </c>
+      <c r="C67" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A67,TODAY()-1)/100000000</f>
+        <v>34301.351092069999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>[1]!S_Info_Name(A68)</f>
+        <v>信托及其他(中信)</v>
+      </c>
+      <c r="C68" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A68,TODAY()-1)/100000000</f>
+        <v>4577.00301597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>[1]!S_Info_Name(A69)</f>
+        <v>房地产开发管理(中信)</v>
+      </c>
+      <c r="C69" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A69,TODAY()-1)/100000000</f>
+        <v>23012.718732370002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>[1]!S_Info_Name(A70)</f>
+        <v>房地产服务Ⅱ(中信)</v>
+      </c>
+      <c r="C70" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A70,TODAY()-1)/100000000</f>
+        <v>236.7456684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>[1]!S_Info_Name(A71)</f>
+        <v>公路铁路(中信)</v>
+      </c>
+      <c r="C71" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A71,TODAY()-1)/100000000</f>
+        <v>4282.4401971300003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>[1]!S_Info_Name(A72)</f>
+        <v>公交物流(中信)</v>
+      </c>
+      <c r="C72" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A72,TODAY()-1)/100000000</f>
+        <v>5236.8642641400002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>[1]!S_Info_Name(A73)</f>
+        <v>航运港口(中信)</v>
+      </c>
+      <c r="C73" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A73,TODAY()-1)/100000000</f>
+        <v>6914.4926134500001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>[1]!S_Info_Name(A74)</f>
+        <v>航空机场(中信)</v>
+      </c>
+      <c r="C74" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A74,TODAY()-1)/100000000</f>
+        <v>6266.5231540300001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>[1]!S_Info_Name(A75)</f>
+        <v>半导体Ⅱ(中信)</v>
+      </c>
+      <c r="C75" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A75,TODAY()-1)/100000000</f>
+        <v>6882.2520883099996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>[1]!S_Info_Name(A76)</f>
+        <v>电信运营Ⅱ(中信)</v>
+      </c>
+      <c r="C76" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A76,TODAY()-1)/100000000</f>
+        <v>2132.1007344599998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>[1]!S_Info_Name(A77)</f>
+        <v>计算机硬件(中信)</v>
+      </c>
+      <c r="C77" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A77,TODAY()-1)/100000000</f>
+        <v>5083.6630513899991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>[1]!S_Info_Name(A78)</f>
+        <v>传媒Ⅱ(中信)</v>
+      </c>
+      <c r="C78" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A78,TODAY()-1)/100000000</f>
+        <v>16429.685906940002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>[1]!S_Info_Name(A79)</f>
+        <v>综合Ⅱ(中信)</v>
+      </c>
+      <c r="C79" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A79,TODAY()-1)/100000000</f>
+        <v>4098.5318908699992</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>[1]!S_Info_Name(A80)</f>
+        <v>电子设备Ⅱ(中信)</v>
+      </c>
+      <c r="C80" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A80,TODAY()-1)/100000000</f>
+        <v>14478.852998689999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>[1]!S_Info_Name(A81)</f>
+        <v>其他元器件Ⅱ(中信)</v>
+      </c>
+      <c r="C81" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A81,TODAY()-1)/100000000</f>
+        <v>18735.460215520001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>[1]!S_Info_Name(A82)</f>
+        <v>通信设备制造(中信)</v>
+      </c>
+      <c r="C82" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A82,TODAY()-1)/100000000</f>
+        <v>14373.73748647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>[1]!S_Info_Name(A83)</f>
+        <v>增值服务Ⅱ(中信)</v>
+      </c>
+      <c r="C83" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A83,TODAY()-1)/100000000</f>
+        <v>476.3589235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>[1]!S_Info_Name(A84)</f>
+        <v>计算机软件(中信)</v>
+      </c>
+      <c r="C84" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A84,TODAY()-1)/100000000</f>
+        <v>13402.81656564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>[1]!S_Info_Name(A85)</f>
+        <v>IT服务(中信)</v>
+      </c>
+      <c r="C85" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A85,TODAY()-1)/100000000</f>
+        <v>4923.6009630500002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>[1]!S_Info_Name(A86)</f>
+        <v>纺织制造(中信)</v>
+      </c>
+      <c r="C86" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A86,TODAY()-1)/100000000</f>
+        <v>1679.5519246900001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>[1]!S_Info_Name(A87)</f>
+        <v>品牌服饰(中信)</v>
+      </c>
+      <c r="C87" s="3">
+        <f ca="1">[1]!s_val_mv_ard(A87,TODAY()-1)/100000000</f>
+        <v>2416.6224323000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>